--- a/DATA/Military field therapy/Military field therapy.xlsx
+++ b/DATA/Military field therapy/Military field therapy.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="86">
   <si>
     <t>Рабочий язык конференции (Language of the conference):</t>
   </si>
@@ -174,6 +174,105 @@
   </si>
   <si>
     <t>Содержание доклада (Content report):</t>
+  </si>
+  <si>
+    <t>русский</t>
+  </si>
+  <si>
+    <t>Пример темы</t>
+  </si>
+  <si>
+    <t>Пищуленок</t>
+  </si>
+  <si>
+    <t>Никита</t>
+  </si>
+  <si>
+    <t>Александрович</t>
+  </si>
+  <si>
+    <t>2000-12-12</t>
+  </si>
+  <si>
+    <t>Минск</t>
+  </si>
+  <si>
+    <t>Республика Беларусь</t>
+  </si>
+  <si>
+    <t>Белорусский государственный медицинский университет</t>
+  </si>
+  <si>
+    <t>БГМУ</t>
+  </si>
+  <si>
+    <t>Доцент (PhD)</t>
+  </si>
+  <si>
+    <t>Педиатрический (Pediatrics)</t>
+  </si>
+  <si>
+    <t>niki1995-11@mail.ru</t>
+  </si>
+  <si>
+    <t>+375336111623</t>
+  </si>
+  <si>
+    <t>Задруцкий</t>
+  </si>
+  <si>
+    <t>Арсений</t>
+  </si>
+  <si>
+    <t>Анатольевич</t>
+  </si>
+  <si>
+    <t>0000-00-00</t>
+  </si>
+  <si>
+    <t>Козлов</t>
+  </si>
+  <si>
+    <t>Евгений</t>
+  </si>
+  <si>
+    <t>Николаевич</t>
+  </si>
+  <si>
+    <t>PhD</t>
+  </si>
+  <si>
+    <t>Профессор</t>
+  </si>
+  <si>
+    <t>Главный врач</t>
+  </si>
+  <si>
+    <t>Акушерство и гинекология</t>
+  </si>
+  <si>
+    <t>njjjh@mail.ru</t>
+  </si>
+  <si>
+    <t>Академик</t>
+  </si>
+  <si>
+    <t>Военно-полевая терапия/Military field therapy</t>
+  </si>
+  <si>
+    <t>Устный доклад + публикация тезисов</t>
+  </si>
+  <si>
+    <t>Содержит собственные результаты исследования</t>
+  </si>
+  <si>
+    <t>1999-01-01</t>
+  </si>
+  <si>
+    <t>D3212</t>
+  </si>
+  <si>
+    <t>2000-11-11</t>
   </si>
 </sst>
 </file>
@@ -512,7 +611,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:BA1"/>
+  <dimension ref="A1:BA11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -679,6 +778,1095 @@
       </c>
       <c r="BA1" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:53">
+      <c r="A3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I3" t="s">
+        <v>61</v>
+      </c>
+      <c r="J3" t="s">
+        <v>62</v>
+      </c>
+      <c r="K3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L3" t="s">
+        <v>64</v>
+      </c>
+      <c r="M3">
+        <v>2</v>
+      </c>
+      <c r="N3" t="s">
+        <v>65</v>
+      </c>
+      <c r="O3" t="s">
+        <v>66</v>
+      </c>
+      <c r="P3" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>68</v>
+      </c>
+      <c r="R3" t="s">
+        <v>69</v>
+      </c>
+      <c r="S3" t="s">
+        <v>70</v>
+      </c>
+      <c r="T3"/>
+      <c r="U3"/>
+      <c r="V3"/>
+      <c r="W3"/>
+      <c r="X3"/>
+      <c r="Y3"/>
+      <c r="Z3"/>
+      <c r="AA3"/>
+      <c r="AB3"/>
+      <c r="AC3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>77</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>78</v>
+      </c>
+      <c r="AM3"/>
+      <c r="AN3"/>
+      <c r="AO3"/>
+      <c r="AP3"/>
+      <c r="AQ3"/>
+      <c r="AR3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AS3"/>
+      <c r="AT3"/>
+      <c r="AU3"/>
+      <c r="AV3"/>
+      <c r="AW3"/>
+      <c r="AX3"/>
+      <c r="AY3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>81</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:53">
+      <c r="A4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>65</v>
+      </c>
+      <c r="O4" t="s">
+        <v>66</v>
+      </c>
+      <c r="P4" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>68</v>
+      </c>
+      <c r="R4" t="s">
+        <v>69</v>
+      </c>
+      <c r="S4" t="s">
+        <v>70</v>
+      </c>
+      <c r="T4"/>
+      <c r="U4"/>
+      <c r="V4"/>
+      <c r="W4"/>
+      <c r="X4"/>
+      <c r="Y4"/>
+      <c r="Z4"/>
+      <c r="AA4"/>
+      <c r="AB4"/>
+      <c r="AC4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>77</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>78</v>
+      </c>
+      <c r="AM4"/>
+      <c r="AN4"/>
+      <c r="AO4"/>
+      <c r="AP4"/>
+      <c r="AQ4"/>
+      <c r="AR4" t="s">
+        <v>79</v>
+      </c>
+      <c r="AS4"/>
+      <c r="AT4"/>
+      <c r="AU4"/>
+      <c r="AV4"/>
+      <c r="AW4"/>
+      <c r="AX4"/>
+      <c r="AY4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>81</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:53">
+      <c r="A5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I5" t="s">
+        <v>61</v>
+      </c>
+      <c r="J5" t="s">
+        <v>62</v>
+      </c>
+      <c r="K5" t="s">
+        <v>63</v>
+      </c>
+      <c r="L5" t="s">
+        <v>64</v>
+      </c>
+      <c r="M5">
+        <v>2</v>
+      </c>
+      <c r="N5" t="s">
+        <v>65</v>
+      </c>
+      <c r="O5" t="s">
+        <v>66</v>
+      </c>
+      <c r="P5" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>68</v>
+      </c>
+      <c r="R5" t="s">
+        <v>69</v>
+      </c>
+      <c r="S5" t="s">
+        <v>70</v>
+      </c>
+      <c r="T5"/>
+      <c r="U5"/>
+      <c r="V5"/>
+      <c r="W5"/>
+      <c r="X5"/>
+      <c r="Y5"/>
+      <c r="Z5"/>
+      <c r="AA5"/>
+      <c r="AB5"/>
+      <c r="AC5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>77</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>78</v>
+      </c>
+      <c r="AM5"/>
+      <c r="AN5"/>
+      <c r="AO5"/>
+      <c r="AP5"/>
+      <c r="AQ5"/>
+      <c r="AR5" t="s">
+        <v>79</v>
+      </c>
+      <c r="AS5"/>
+      <c r="AT5"/>
+      <c r="AU5"/>
+      <c r="AV5"/>
+      <c r="AW5"/>
+      <c r="AX5"/>
+      <c r="AY5" t="s">
+        <v>80</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>81</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:53">
+      <c r="A6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H6" t="s">
+        <v>60</v>
+      </c>
+      <c r="I6" t="s">
+        <v>61</v>
+      </c>
+      <c r="J6" t="s">
+        <v>62</v>
+      </c>
+      <c r="K6" t="s">
+        <v>63</v>
+      </c>
+      <c r="L6" t="s">
+        <v>64</v>
+      </c>
+      <c r="M6">
+        <v>2</v>
+      </c>
+      <c r="N6" t="s">
+        <v>65</v>
+      </c>
+      <c r="O6" t="s">
+        <v>66</v>
+      </c>
+      <c r="P6" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>68</v>
+      </c>
+      <c r="R6" t="s">
+        <v>69</v>
+      </c>
+      <c r="S6" t="s">
+        <v>70</v>
+      </c>
+      <c r="T6"/>
+      <c r="U6"/>
+      <c r="V6"/>
+      <c r="W6"/>
+      <c r="X6"/>
+      <c r="Y6"/>
+      <c r="Z6"/>
+      <c r="AA6"/>
+      <c r="AB6"/>
+      <c r="AC6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AM6"/>
+      <c r="AN6"/>
+      <c r="AO6"/>
+      <c r="AP6"/>
+      <c r="AQ6"/>
+      <c r="AR6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AS6"/>
+      <c r="AT6"/>
+      <c r="AU6"/>
+      <c r="AV6"/>
+      <c r="AW6"/>
+      <c r="AX6"/>
+      <c r="AY6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AZ6" t="s">
+        <v>81</v>
+      </c>
+      <c r="BA6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:53">
+      <c r="A7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I7" t="s">
+        <v>61</v>
+      </c>
+      <c r="J7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L7" t="s">
+        <v>64</v>
+      </c>
+      <c r="M7">
+        <v>2</v>
+      </c>
+      <c r="N7" t="s">
+        <v>65</v>
+      </c>
+      <c r="O7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P7" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>68</v>
+      </c>
+      <c r="R7" t="s">
+        <v>69</v>
+      </c>
+      <c r="S7" t="s">
+        <v>70</v>
+      </c>
+      <c r="T7"/>
+      <c r="U7"/>
+      <c r="V7"/>
+      <c r="W7"/>
+      <c r="X7"/>
+      <c r="Y7"/>
+      <c r="Z7"/>
+      <c r="AA7"/>
+      <c r="AB7"/>
+      <c r="AC7" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>61</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>77</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>78</v>
+      </c>
+      <c r="AM7"/>
+      <c r="AN7"/>
+      <c r="AO7"/>
+      <c r="AP7"/>
+      <c r="AQ7"/>
+      <c r="AR7" t="s">
+        <v>79</v>
+      </c>
+      <c r="AS7"/>
+      <c r="AT7"/>
+      <c r="AU7"/>
+      <c r="AV7"/>
+      <c r="AW7"/>
+      <c r="AX7"/>
+      <c r="AY7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AZ7" t="s">
+        <v>81</v>
+      </c>
+      <c r="BA7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:53">
+      <c r="A8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" t="s">
+        <v>83</v>
+      </c>
+      <c r="G8" t="s">
+        <v>59</v>
+      </c>
+      <c r="H8" t="s">
+        <v>60</v>
+      </c>
+      <c r="I8" t="s">
+        <v>61</v>
+      </c>
+      <c r="J8" t="s">
+        <v>62</v>
+      </c>
+      <c r="K8" t="s">
+        <v>63</v>
+      </c>
+      <c r="L8" t="s">
+        <v>64</v>
+      </c>
+      <c r="M8">
+        <v>2</v>
+      </c>
+      <c r="N8" t="s">
+        <v>65</v>
+      </c>
+      <c r="O8" t="s">
+        <v>66</v>
+      </c>
+      <c r="P8" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>68</v>
+      </c>
+      <c r="R8" t="s">
+        <v>69</v>
+      </c>
+      <c r="S8" t="s">
+        <v>70</v>
+      </c>
+      <c r="T8"/>
+      <c r="U8"/>
+      <c r="V8"/>
+      <c r="W8"/>
+      <c r="X8"/>
+      <c r="Y8"/>
+      <c r="Z8"/>
+      <c r="AA8"/>
+      <c r="AB8"/>
+      <c r="AC8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>78</v>
+      </c>
+      <c r="AM8"/>
+      <c r="AN8"/>
+      <c r="AO8"/>
+      <c r="AP8"/>
+      <c r="AQ8"/>
+      <c r="AR8" t="s">
+        <v>79</v>
+      </c>
+      <c r="AS8"/>
+      <c r="AT8"/>
+      <c r="AU8"/>
+      <c r="AV8"/>
+      <c r="AW8"/>
+      <c r="AX8"/>
+      <c r="AY8" t="s">
+        <v>80</v>
+      </c>
+      <c r="AZ8" t="s">
+        <v>81</v>
+      </c>
+      <c r="BA8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:53">
+      <c r="A9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" t="s">
+        <v>83</v>
+      </c>
+      <c r="G9" t="s">
+        <v>59</v>
+      </c>
+      <c r="H9" t="s">
+        <v>60</v>
+      </c>
+      <c r="I9" t="s">
+        <v>61</v>
+      </c>
+      <c r="J9" t="s">
+        <v>62</v>
+      </c>
+      <c r="K9" t="s">
+        <v>63</v>
+      </c>
+      <c r="L9" t="s">
+        <v>64</v>
+      </c>
+      <c r="M9">
+        <v>2</v>
+      </c>
+      <c r="N9" t="s">
+        <v>65</v>
+      </c>
+      <c r="O9" t="s">
+        <v>66</v>
+      </c>
+      <c r="P9" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>68</v>
+      </c>
+      <c r="R9" t="s">
+        <v>69</v>
+      </c>
+      <c r="S9" t="s">
+        <v>70</v>
+      </c>
+      <c r="T9"/>
+      <c r="U9"/>
+      <c r="V9"/>
+      <c r="W9"/>
+      <c r="X9"/>
+      <c r="Y9"/>
+      <c r="Z9"/>
+      <c r="AA9"/>
+      <c r="AB9"/>
+      <c r="AC9" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>61</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>77</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>78</v>
+      </c>
+      <c r="AM9"/>
+      <c r="AN9"/>
+      <c r="AO9"/>
+      <c r="AP9"/>
+      <c r="AQ9"/>
+      <c r="AR9" t="s">
+        <v>79</v>
+      </c>
+      <c r="AS9"/>
+      <c r="AT9"/>
+      <c r="AU9"/>
+      <c r="AV9"/>
+      <c r="AW9"/>
+      <c r="AX9"/>
+      <c r="AY9" t="s">
+        <v>80</v>
+      </c>
+      <c r="AZ9" t="s">
+        <v>81</v>
+      </c>
+      <c r="BA9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:53">
+      <c r="A10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" t="s">
+        <v>85</v>
+      </c>
+      <c r="G10" t="s">
+        <v>59</v>
+      </c>
+      <c r="H10" t="s">
+        <v>60</v>
+      </c>
+      <c r="I10" t="s">
+        <v>61</v>
+      </c>
+      <c r="J10" t="s">
+        <v>62</v>
+      </c>
+      <c r="K10" t="s">
+        <v>63</v>
+      </c>
+      <c r="L10" t="s">
+        <v>64</v>
+      </c>
+      <c r="M10">
+        <v>2</v>
+      </c>
+      <c r="N10" t="s">
+        <v>65</v>
+      </c>
+      <c r="O10" t="s">
+        <v>66</v>
+      </c>
+      <c r="P10" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>68</v>
+      </c>
+      <c r="R10" t="s">
+        <v>69</v>
+      </c>
+      <c r="S10" t="s">
+        <v>70</v>
+      </c>
+      <c r="T10"/>
+      <c r="U10"/>
+      <c r="V10"/>
+      <c r="W10"/>
+      <c r="X10"/>
+      <c r="Y10"/>
+      <c r="Z10"/>
+      <c r="AA10"/>
+      <c r="AB10"/>
+      <c r="AC10" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>61</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>78</v>
+      </c>
+      <c r="AM10"/>
+      <c r="AN10"/>
+      <c r="AO10"/>
+      <c r="AP10"/>
+      <c r="AQ10"/>
+      <c r="AR10" t="s">
+        <v>79</v>
+      </c>
+      <c r="AS10"/>
+      <c r="AT10"/>
+      <c r="AU10"/>
+      <c r="AV10"/>
+      <c r="AW10"/>
+      <c r="AX10"/>
+      <c r="AY10" t="s">
+        <v>80</v>
+      </c>
+      <c r="AZ10" t="s">
+        <v>81</v>
+      </c>
+      <c r="BA10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:53">
+      <c r="A11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" t="s">
+        <v>85</v>
+      </c>
+      <c r="G11" t="s">
+        <v>59</v>
+      </c>
+      <c r="H11" t="s">
+        <v>60</v>
+      </c>
+      <c r="I11" t="s">
+        <v>61</v>
+      </c>
+      <c r="J11" t="s">
+        <v>62</v>
+      </c>
+      <c r="K11" t="s">
+        <v>63</v>
+      </c>
+      <c r="L11" t="s">
+        <v>64</v>
+      </c>
+      <c r="M11">
+        <v>2</v>
+      </c>
+      <c r="N11" t="s">
+        <v>65</v>
+      </c>
+      <c r="O11" t="s">
+        <v>66</v>
+      </c>
+      <c r="P11" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>68</v>
+      </c>
+      <c r="R11" t="s">
+        <v>69</v>
+      </c>
+      <c r="S11" t="s">
+        <v>70</v>
+      </c>
+      <c r="T11"/>
+      <c r="U11"/>
+      <c r="V11"/>
+      <c r="W11"/>
+      <c r="X11"/>
+      <c r="Y11"/>
+      <c r="Z11"/>
+      <c r="AA11"/>
+      <c r="AB11"/>
+      <c r="AC11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>61</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>77</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>78</v>
+      </c>
+      <c r="AM11"/>
+      <c r="AN11"/>
+      <c r="AO11"/>
+      <c r="AP11"/>
+      <c r="AQ11"/>
+      <c r="AR11" t="s">
+        <v>79</v>
+      </c>
+      <c r="AS11"/>
+      <c r="AT11"/>
+      <c r="AU11"/>
+      <c r="AV11"/>
+      <c r="AW11"/>
+      <c r="AX11"/>
+      <c r="AY11" t="s">
+        <v>80</v>
+      </c>
+      <c r="AZ11" t="s">
+        <v>81</v>
+      </c>
+      <c r="BA11" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
